--- a/documentation/LFDISC6_4.xlsx
+++ b/documentation/LFDISC6_4.xlsx
@@ -146,7 +146,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>2.0160826E7</v>
+        <v>2.0160827E7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
